--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,309 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7722848080281</v>
+        <v>36.464945</v>
       </c>
       <c r="H2">
-        <v>31.7722848080281</v>
+        <v>109.394835</v>
       </c>
       <c r="I2">
-        <v>0.6682388770654251</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J2">
-        <v>0.6682388770654251</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.332710333924834</v>
+        <v>0.01257466666666667</v>
       </c>
       <c r="N2">
-        <v>0.332710333924834</v>
+        <v>0.037724</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01399471506969349</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01399471506969349</v>
       </c>
       <c r="Q2">
-        <v>10.57096748803396</v>
+        <v>0.4585345283933333</v>
       </c>
       <c r="R2">
-        <v>10.57096748803396</v>
+        <v>4.12681075554</v>
       </c>
       <c r="S2">
-        <v>0.6682388770654251</v>
+        <v>0.009055392567109724</v>
       </c>
       <c r="T2">
-        <v>0.6682388770654251</v>
+        <v>0.009055392567109723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.76965729360687</v>
+        <v>36.464945</v>
       </c>
       <c r="H3">
-        <v>3.76965729360687</v>
+        <v>109.394835</v>
       </c>
       <c r="I3">
-        <v>0.07928392849370547</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J3">
-        <v>0.07928392849370547</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.332710333924834</v>
+        <v>0.276082</v>
       </c>
       <c r="N3">
-        <v>0.332710333924834</v>
+        <v>0.828246</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3072597491679926</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3072597491679926</v>
       </c>
       <c r="Q3">
-        <v>1.254203936938128</v>
+        <v>10.06731494549</v>
       </c>
       <c r="R3">
-        <v>1.254203936938128</v>
+        <v>90.60583450941</v>
       </c>
       <c r="S3">
-        <v>0.07928392849370547</v>
+        <v>0.1988148836851437</v>
       </c>
       <c r="T3">
-        <v>0.07928392849370547</v>
+        <v>0.1988148836851437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.644664834219579</v>
+        <v>36.464945</v>
       </c>
       <c r="H4">
-        <v>9.644664834219579</v>
+        <v>109.394835</v>
       </c>
       <c r="I4">
-        <v>0.2028478605625115</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J4">
-        <v>0.2028478605625115</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.332710333924834</v>
+        <v>0.02515166666666667</v>
       </c>
       <c r="N4">
-        <v>0.332710333924834</v>
+        <v>0.07545499999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.02799202697443861</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.02799202697443861</v>
       </c>
       <c r="Q4">
-        <v>3.2088796575863</v>
+        <v>0.9171541416583333</v>
       </c>
       <c r="R4">
-        <v>3.2088796575863</v>
+        <v>8.254387274925</v>
       </c>
       <c r="S4">
-        <v>0.2028478605625115</v>
+        <v>0.01811246543715577</v>
       </c>
       <c r="T4">
-        <v>0.2028478605625115</v>
+        <v>0.01811246543715576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.463279032513029</v>
+        <v>36.464945</v>
       </c>
       <c r="H5">
-        <v>0.463279032513029</v>
+        <v>109.394835</v>
       </c>
       <c r="I5">
-        <v>0.009743745604856194</v>
+        <v>0.6470580159734581</v>
       </c>
       <c r="J5">
-        <v>0.009743745604856194</v>
+        <v>0.647058015973458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.332710333924834</v>
+        <v>0.5847213333333333</v>
       </c>
       <c r="N5">
-        <v>0.332710333924834</v>
+        <v>1.754164</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6507535087878753</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6507535087878752</v>
       </c>
       <c r="Q5">
-        <v>0.1541377216077839</v>
+        <v>21.32183126032666</v>
       </c>
       <c r="R5">
-        <v>0.1541377216077839</v>
+        <v>191.89648134294</v>
       </c>
       <c r="S5">
-        <v>0.009743745604856194</v>
+        <v>0.421075274284049</v>
       </c>
       <c r="T5">
-        <v>0.009743745604856194</v>
+        <v>0.4210752742840488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06058233333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.181747</v>
+      </c>
+      <c r="I6">
+        <v>0.001075012848907612</v>
+      </c>
+      <c r="J6">
+        <v>0.001075012848907611</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01257466666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.037724</v>
+      </c>
+      <c r="O6">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="P6">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="Q6">
+        <v>0.0007618026475555556</v>
+      </c>
+      <c r="R6">
+        <v>0.006856223828000001</v>
+      </c>
+      <c r="S6">
+        <v>1.504449851672148E-05</v>
+      </c>
+      <c r="T6">
+        <v>1.504449851672148E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.06058233333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.181747</v>
+      </c>
+      <c r="I7">
+        <v>0.001075012848907612</v>
+      </c>
+      <c r="J7">
+        <v>0.001075012848907611</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.276082</v>
+      </c>
+      <c r="N7">
+        <v>0.828246</v>
+      </c>
+      <c r="O7">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="P7">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="Q7">
+        <v>0.01672569175133334</v>
+      </c>
+      <c r="R7">
+        <v>0.150531225762</v>
+      </c>
+      <c r="S7">
+        <v>0.0003303081783077219</v>
+      </c>
+      <c r="T7">
+        <v>0.0003303081783077218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.06058233333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.181747</v>
+      </c>
+      <c r="I8">
+        <v>0.001075012848907612</v>
+      </c>
+      <c r="J8">
+        <v>0.001075012848907611</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="P8">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="Q8">
+        <v>0.001523746653888889</v>
+      </c>
+      <c r="R8">
+        <v>0.013713719885</v>
+      </c>
+      <c r="S8">
+        <v>3.009178866448996E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.009178866448996E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.06058233333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.181747</v>
+      </c>
+      <c r="I9">
+        <v>0.001075012848907612</v>
+      </c>
+      <c r="J9">
+        <v>0.001075012848907611</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5847213333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.754164</v>
+      </c>
+      <c r="O9">
+        <v>0.6507535087878753</v>
+      </c>
+      <c r="P9">
+        <v>0.6507535087878752</v>
+      </c>
+      <c r="Q9">
+        <v>0.03542378272311111</v>
+      </c>
+      <c r="R9">
+        <v>0.318814044508</v>
+      </c>
+      <c r="S9">
+        <v>0.0006995683834186783</v>
+      </c>
+      <c r="T9">
+        <v>0.0006995683834186781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.725386</v>
+      </c>
+      <c r="H10">
+        <v>20.176158</v>
+      </c>
+      <c r="I10">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J10">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01257466666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.037724</v>
+      </c>
+      <c r="O10">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="P10">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="Q10">
+        <v>0.08456948715466667</v>
+      </c>
+      <c r="R10">
+        <v>0.7611253843920001</v>
+      </c>
+      <c r="S10">
+        <v>0.001670124838947208</v>
+      </c>
+      <c r="T10">
+        <v>0.001670124838947208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.725386</v>
+      </c>
+      <c r="H11">
+        <v>20.176158</v>
+      </c>
+      <c r="I11">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J11">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.276082</v>
+      </c>
+      <c r="N11">
+        <v>0.828246</v>
+      </c>
+      <c r="O11">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="P11">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="Q11">
+        <v>1.856758017652</v>
+      </c>
+      <c r="R11">
+        <v>16.710822158868</v>
+      </c>
+      <c r="S11">
+        <v>0.03666828060011317</v>
+      </c>
+      <c r="T11">
+        <v>0.03666828060011317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.725386</v>
+      </c>
+      <c r="H12">
+        <v>20.176158</v>
+      </c>
+      <c r="I12">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J12">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="P12">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="Q12">
+        <v>0.1691546668766667</v>
+      </c>
+      <c r="R12">
+        <v>1.52239200189</v>
+      </c>
+      <c r="S12">
+        <v>0.003340559583362357</v>
+      </c>
+      <c r="T12">
+        <v>0.003340559583362357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.725386</v>
+      </c>
+      <c r="H13">
+        <v>20.176158</v>
+      </c>
+      <c r="I13">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="J13">
+        <v>0.1193396814890485</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5847213333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.754164</v>
+      </c>
+      <c r="O13">
+        <v>0.6507535087878753</v>
+      </c>
+      <c r="P13">
+        <v>0.6507535087878752</v>
+      </c>
+      <c r="Q13">
+        <v>3.932476669101333</v>
+      </c>
+      <c r="R13">
+        <v>35.392290021912</v>
+      </c>
+      <c r="S13">
+        <v>0.07766071646662576</v>
+      </c>
+      <c r="T13">
+        <v>0.07766071646662574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H14">
+        <v>31.55363</v>
+      </c>
+      <c r="I14">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J14">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01257466666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.037724</v>
+      </c>
+      <c r="O14">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="P14">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="Q14">
+        <v>0.1322587931244444</v>
+      </c>
+      <c r="R14">
+        <v>1.19032913812</v>
+      </c>
+      <c r="S14">
+        <v>0.002611919535024943</v>
+      </c>
+      <c r="T14">
+        <v>0.002611919535024943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H15">
+        <v>31.55363</v>
+      </c>
+      <c r="I15">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J15">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.276082</v>
+      </c>
+      <c r="N15">
+        <v>0.828246</v>
+      </c>
+      <c r="O15">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="P15">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="Q15">
+        <v>2.903796425886667</v>
+      </c>
+      <c r="R15">
+        <v>26.13416783298</v>
+      </c>
+      <c r="S15">
+        <v>0.05734577211340974</v>
+      </c>
+      <c r="T15">
+        <v>0.05734577211340974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H16">
+        <v>31.55363</v>
+      </c>
+      <c r="I16">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J16">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="P16">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="Q16">
+        <v>0.2645421279611111</v>
+      </c>
+      <c r="R16">
+        <v>2.38087915165</v>
+      </c>
+      <c r="S16">
+        <v>0.005224323733307896</v>
+      </c>
+      <c r="T16">
+        <v>0.005224323733307896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.51787666666667</v>
+      </c>
+      <c r="H17">
+        <v>31.55363</v>
+      </c>
+      <c r="I17">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="J17">
+        <v>0.1866361352851859</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5847213333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.754164</v>
+      </c>
+      <c r="O17">
+        <v>0.6507535087878753</v>
+      </c>
+      <c r="P17">
+        <v>0.6507535087878752</v>
+      </c>
+      <c r="Q17">
+        <v>6.150026868368888</v>
+      </c>
+      <c r="R17">
+        <v>55.35024181531999</v>
+      </c>
+      <c r="S17">
+        <v>0.1214541199034433</v>
+      </c>
+      <c r="T17">
+        <v>0.1214541199034433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.408603</v>
+      </c>
+      <c r="I18">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J18">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01257466666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.037724</v>
+      </c>
+      <c r="O18">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="P18">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="Q18">
+        <v>0.005904237730222222</v>
+      </c>
+      <c r="R18">
+        <v>0.053138139572</v>
+      </c>
+      <c r="S18">
+        <v>0.0001166001405478463</v>
+      </c>
+      <c r="T18">
+        <v>0.0001166001405478463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.408603</v>
+      </c>
+      <c r="I19">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J19">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.276082</v>
+      </c>
+      <c r="N19">
+        <v>0.828246</v>
+      </c>
+      <c r="O19">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="P19">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="Q19">
+        <v>0.1296299778153333</v>
+      </c>
+      <c r="R19">
+        <v>1.166669800338</v>
+      </c>
+      <c r="S19">
+        <v>0.002560004241548922</v>
+      </c>
+      <c r="T19">
+        <v>0.002560004241548922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.408603</v>
+      </c>
+      <c r="I20">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J20">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="P20">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="Q20">
+        <v>0.01180957104055556</v>
+      </c>
+      <c r="R20">
+        <v>0.106286139365</v>
+      </c>
+      <c r="S20">
+        <v>0.0002332219172155059</v>
+      </c>
+      <c r="T20">
+        <v>0.0002332219172155059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="H6">
-        <v>1.89641206738315</v>
-      </c>
-      <c r="I6">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="J6">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.332710333924834</v>
-      </c>
-      <c r="N6">
-        <v>0.332710333924834</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.6309558921981326</v>
-      </c>
-      <c r="R6">
-        <v>0.6309558921981326</v>
-      </c>
-      <c r="S6">
-        <v>0.03988558827350156</v>
-      </c>
-      <c r="T6">
-        <v>0.03988558827350156</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4695343333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.408603</v>
+      </c>
+      <c r="I21">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="J21">
+        <v>0.00833172665303861</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5847213333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.754164</v>
+      </c>
+      <c r="O21">
+        <v>0.6507535087878753</v>
+      </c>
+      <c r="P21">
+        <v>0.6507535087878752</v>
+      </c>
+      <c r="Q21">
+        <v>0.2745467414324445</v>
+      </c>
+      <c r="R21">
+        <v>2.470920672892</v>
+      </c>
+      <c r="S21">
+        <v>0.005421900353726336</v>
+      </c>
+      <c r="T21">
+        <v>0.005421900353726335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.116661</v>
+      </c>
+      <c r="H22">
+        <v>6.349983</v>
+      </c>
+      <c r="I22">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J22">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01257466666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.037724</v>
+      </c>
+      <c r="O22">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="P22">
+        <v>0.01399471506969349</v>
+      </c>
+      <c r="Q22">
+        <v>0.02661630652133333</v>
+      </c>
+      <c r="R22">
+        <v>0.239546758692</v>
+      </c>
+      <c r="S22">
+        <v>0.000525633489547044</v>
+      </c>
+      <c r="T22">
+        <v>0.000525633489547044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.116661</v>
+      </c>
+      <c r="H23">
+        <v>6.349983</v>
+      </c>
+      <c r="I23">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J23">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.276082</v>
+      </c>
+      <c r="N23">
+        <v>0.828246</v>
+      </c>
+      <c r="O23">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="P23">
+        <v>0.3072597491679926</v>
+      </c>
+      <c r="Q23">
+        <v>0.584372002202</v>
+      </c>
+      <c r="R23">
+        <v>5.259348019818</v>
+      </c>
+      <c r="S23">
+        <v>0.01154050034946933</v>
+      </c>
+      <c r="T23">
+        <v>0.01154050034946933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.116661</v>
+      </c>
+      <c r="H24">
+        <v>6.349983</v>
+      </c>
+      <c r="I24">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J24">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02515166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.07545499999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="P24">
+        <v>0.02799202697443861</v>
+      </c>
+      <c r="Q24">
+        <v>0.05323755191833333</v>
+      </c>
+      <c r="R24">
+        <v>0.479137967265</v>
+      </c>
+      <c r="S24">
+        <v>0.001051364514732589</v>
+      </c>
+      <c r="T24">
+        <v>0.001051364514732589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.116661</v>
+      </c>
+      <c r="H25">
+        <v>6.349983</v>
+      </c>
+      <c r="I25">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="J25">
+        <v>0.03755942775036122</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5847213333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.754164</v>
+      </c>
+      <c r="O25">
+        <v>0.6507535087878753</v>
+      </c>
+      <c r="P25">
+        <v>0.6507535087878752</v>
+      </c>
+      <c r="Q25">
+        <v>1.237656842134667</v>
+      </c>
+      <c r="R25">
+        <v>11.138911579212</v>
+      </c>
+      <c r="S25">
+        <v>0.02444192939661226</v>
+      </c>
+      <c r="T25">
+        <v>0.02444192939661225</v>
       </c>
     </row>
   </sheetData>
